--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTUS\OneDrive\Desktop\Normal softwer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0268D2-D584-47FB-B36F-2790F07D3159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C34DEB-C378-44DB-BF20-872D522D0AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5DB3DE8-FD8F-4413-849B-11553E2EF562}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{8B877CC0-1D25-4358-99AE-9037650E94D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,66 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>NUM1</t>
-  </si>
-  <si>
-    <t>NUM2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>IT2k21100</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>MTech IT [5yrs]</t>
+  </si>
+  <si>
+    <t>DE210269</t>
+  </si>
+  <si>
+    <t>IT2k21101</t>
+  </si>
+  <si>
+    <t>IT2k21102</t>
+  </si>
+  <si>
+    <t>IT2k21103</t>
+  </si>
+  <si>
+    <t>IT2k21104</t>
+  </si>
+  <si>
+    <t>DE210270</t>
+  </si>
+  <si>
+    <t>DE210271</t>
+  </si>
+  <si>
+    <t>DE210272</t>
+  </si>
+  <si>
+    <t>DE210273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,40 +418,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CCBD73-F258-4C15-B617-26A3594D5081}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6F5DA7-5DE0-4127-8C23-9780D79C4A14}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTUS\OneDrive\Desktop\Normal softwer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0268D2-D584-47FB-B36F-2790F07D3159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3BDB0-E04D-460B-931C-831B2ED4AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5DB3DE8-FD8F-4413-849B-11553E2EF562}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,19 +35,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>NUM1</t>
-  </si>
-  <si>
-    <t>NUM2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Book No</t>
+  </si>
+  <si>
+    <t>Author 1</t>
+  </si>
+  <si>
+    <t>Author 2</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>CL Number</t>
+  </si>
+  <si>
+    <t>Total Pages</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Bill_No</t>
+  </si>
+  <si>
+    <t>holly cow</t>
+  </si>
+  <si>
+    <t>hijfds</t>
+  </si>
+  <si>
+    <t>hghvfhjg</t>
+  </si>
+  <si>
+    <t>hjkgkgvhjgk</t>
+  </si>
+  <si>
+    <t>hj,vbhjkg</t>
+  </si>
+  <si>
+    <t>hv,bjhjk</t>
+  </si>
+  <si>
+    <t>jkkhg</t>
+  </si>
+  <si>
+    <t>hjkgkhjgvgj</t>
+  </si>
+  <si>
+    <t>jkhv</t>
+  </si>
+  <si>
+    <t>Title 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +115,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,40 +468,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CCBD73-F258-4C15-B617-26A3594D5081}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>6.4</v>
+      </c>
+      <c r="I2">
+        <v>97</v>
+      </c>
+      <c r="J2">
+        <v>351</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFFAF4-5C6B-477E-A7D1-D4CA9A94EC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7ECA20-BDE6-4931-B408-B7A81F857702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Book No</t>
   </si>
@@ -158,6 +157,9 @@
   </si>
   <si>
     <t>hjbh</t>
+  </si>
+  <si>
+    <t>hjbh1</t>
   </si>
 </sst>
 </file>
@@ -526,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +706,47 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7ECA20-BDE6-4931-B408-B7A81F857702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F17AEB-EC60-4687-8218-8C4FA6FCC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">

--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F17AEB-EC60-4687-8218-8C4FA6FCC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3194457-AB45-41E1-BE04-131EDB88420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -703,7 +703,7 @@
         <v>40</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
       <c r="N5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3194457-AB45-41E1-BE04-131EDB88420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03852CE-ABFD-468B-8D7C-0A2AA44DF41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Book No</t>
   </si>
@@ -72,57 +63,6 @@
     <t>Bill_No</t>
   </si>
   <si>
-    <t>holly cow</t>
-  </si>
-  <si>
-    <t>hijfds</t>
-  </si>
-  <si>
-    <t>hghvfhjg</t>
-  </si>
-  <si>
-    <t>hjkgkgvhjgk</t>
-  </si>
-  <si>
-    <t>hj,vbhjkg</t>
-  </si>
-  <si>
-    <t>hv,bjhjk</t>
-  </si>
-  <si>
-    <t>jkkhg</t>
-  </si>
-  <si>
-    <t>hjkgkhjgvgj</t>
-  </si>
-  <si>
-    <t>jkhv</t>
-  </si>
-  <si>
-    <t>dgs</t>
-  </si>
-  <si>
-    <t>hgcygfhjdc</t>
-  </si>
-  <si>
-    <t>hytgfhgkf</t>
-  </si>
-  <si>
-    <t>hhgfghkfhg</t>
-  </si>
-  <si>
-    <t>jhghvhgkvhjkg</t>
-  </si>
-  <si>
-    <t>uhjguhjkghj</t>
-  </si>
-  <si>
-    <t>mnbhjm</t>
-  </si>
-  <si>
-    <t>vhbvh</t>
-  </si>
-  <si>
     <t xml:space="preserve"> vhg</t>
   </si>
   <si>
@@ -132,24 +72,6 @@
     <t>Book Copies</t>
   </si>
   <si>
-    <t>rdfglrsdg</t>
-  </si>
-  <si>
-    <t>hghfchtjgft</t>
-  </si>
-  <si>
-    <t>gfhjgfhgj</t>
-  </si>
-  <si>
-    <t>fhjkgfhjgf</t>
-  </si>
-  <si>
-    <t>hgfhjkgfhjgf</t>
-  </si>
-  <si>
-    <t>hgfghgjkfhg</t>
-  </si>
-  <si>
     <t>nbhijb</t>
   </si>
   <si>
@@ -159,7 +81,34 @@
     <t>hjbh</t>
   </si>
   <si>
-    <t>hjbh1</t>
+    <t>learning C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denesh Pathak </t>
+  </si>
+  <si>
+    <t>k ramanujan</t>
+  </si>
+  <si>
+    <t>ph pub.</t>
+  </si>
+  <si>
+    <t>main library</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>zakie m</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>jk publishers</t>
   </si>
 </sst>
 </file>
@@ -528,15 +477,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="11" max="13" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -577,173 +537,79 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>150</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>545</v>
+      </c>
+      <c r="I2">
+        <v>544</v>
+      </c>
+      <c r="J2">
+        <v>654</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6.4</v>
-      </c>
-      <c r="I2">
-        <v>97</v>
-      </c>
-      <c r="J2">
-        <v>351</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
       <c r="N2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>545</v>
+        <v>87</v>
       </c>
       <c r="I3">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="J3">
-        <v>654</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>87</v>
-      </c>
-      <c r="I4">
-        <v>68</v>
-      </c>
-      <c r="J4">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>87</v>
-      </c>
-      <c r="I5">
-        <v>68</v>
-      </c>
-      <c r="J5">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5">
         <v>3</v>
       </c>
     </row>

--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3194457-AB45-41E1-BE04-131EDB88420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F41242-6030-416E-A125-608D7E61FB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Book No</t>
   </si>
@@ -72,57 +63,6 @@
     <t>Bill_No</t>
   </si>
   <si>
-    <t>holly cow</t>
-  </si>
-  <si>
-    <t>hijfds</t>
-  </si>
-  <si>
-    <t>hghvfhjg</t>
-  </si>
-  <si>
-    <t>hjkgkgvhjgk</t>
-  </si>
-  <si>
-    <t>hj,vbhjkg</t>
-  </si>
-  <si>
-    <t>hv,bjhjk</t>
-  </si>
-  <si>
-    <t>jkkhg</t>
-  </si>
-  <si>
-    <t>hjkgkhjgvgj</t>
-  </si>
-  <si>
-    <t>jkhv</t>
-  </si>
-  <si>
-    <t>dgs</t>
-  </si>
-  <si>
-    <t>hgcygfhjdc</t>
-  </si>
-  <si>
-    <t>hytgfhgkf</t>
-  </si>
-  <si>
-    <t>hhgfghkfhg</t>
-  </si>
-  <si>
-    <t>jhghvhgkvhjkg</t>
-  </si>
-  <si>
-    <t>uhjguhjkghj</t>
-  </si>
-  <si>
-    <t>mnbhjm</t>
-  </si>
-  <si>
-    <t>vhbvh</t>
-  </si>
-  <si>
     <t xml:space="preserve"> vhg</t>
   </si>
   <si>
@@ -132,24 +72,6 @@
     <t>Book Copies</t>
   </si>
   <si>
-    <t>rdfglrsdg</t>
-  </si>
-  <si>
-    <t>hghfchtjgft</t>
-  </si>
-  <si>
-    <t>gfhjgfhgj</t>
-  </si>
-  <si>
-    <t>fhjkgfhjgf</t>
-  </si>
-  <si>
-    <t>hgfhjkgfhjgf</t>
-  </si>
-  <si>
-    <t>hgfghgjkfhg</t>
-  </si>
-  <si>
     <t>nbhijb</t>
   </si>
   <si>
@@ -159,7 +81,40 @@
     <t>hjbh</t>
   </si>
   <si>
-    <t>hjbh1</t>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>requied</t>
+  </si>
+  <si>
+    <t>learning C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denesh Pathak </t>
+  </si>
+  <si>
+    <t>k ramanujan</t>
+  </si>
+  <si>
+    <t>ph pub.</t>
+  </si>
+  <si>
+    <t>main library</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>zakie m</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>jk publishers</t>
   </si>
 </sst>
 </file>
@@ -528,13 +483,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="11" max="13" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -550,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -577,71 +543,71 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>150</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6.4</v>
-      </c>
-      <c r="I2">
-        <v>97</v>
-      </c>
-      <c r="J2">
-        <v>351</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
       </c>
       <c r="H3">
         <v>545</v>
@@ -652,37 +618,28 @@
       <c r="J3">
         <v>654</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>87</v>
@@ -694,56 +651,15 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>87</v>
-      </c>
-      <c r="I5">
-        <v>68</v>
-      </c>
-      <c r="J5">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5">
         <v>3</v>
       </c>
     </row>

--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03852CE-ABFD-468B-8D7C-0A2AA44DF41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48153B3B-CA17-4966-A550-2EA98B7E16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="3864" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,23 +480,23 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="11" max="13" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="11" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,9 +540,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -578,7 +578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>23</v>
       </c>

--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,121 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E07101-15DE-4890-B2A4-F78D05AA3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2C19E-B175-400D-8AAE-FEC8EA3B81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FCD31B-7798-427F-A334-20D83BC2FBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Book No</t>
-  </si>
-  <si>
-    <t>Author 1</t>
-  </si>
-  <si>
-    <t>Author 2</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Edition</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>CL Number</t>
-  </si>
-  <si>
-    <t>Total Pages</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Bill_No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vhg</t>
-  </si>
-  <si>
-    <t>Author 3</t>
-  </si>
-  <si>
-    <t>Book Copies</t>
-  </si>
-  <si>
-    <t>nbhijb</t>
-  </si>
-  <si>
-    <t>hjbhj</t>
-  </si>
-  <si>
-    <t>hjbh</t>
-  </si>
-  <si>
-    <t>learning C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denesh Pathak </t>
-  </si>
-  <si>
-    <t>k ramanujan</t>
-  </si>
-  <si>
-    <t>ph pub.</t>
-  </si>
-  <si>
-    <t>main library</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>zakie m</t>
-  </si>
-  <si>
-    <t>7th</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>jk publishers</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+  <si>
+    <t>Faculty ID</t>
+  </si>
+  <si>
+    <t>Faculty Name</t>
+  </si>
+  <si>
+    <t>Faculty Type</t>
+  </si>
+  <si>
+    <t>Zakie Khan</t>
+  </si>
+  <si>
+    <t>Visiting</t>
+  </si>
+  <si>
+    <t>Kartikey</t>
+  </si>
+  <si>
+    <t>FID123</t>
+  </si>
+  <si>
+    <t>FID104</t>
+  </si>
+  <si>
+    <t>FID105</t>
+  </si>
+  <si>
+    <t>FID106</t>
+  </si>
+  <si>
+    <t>FID109</t>
+  </si>
+  <si>
+    <t>FID111</t>
+  </si>
+  <si>
+    <t>FID112</t>
+  </si>
+  <si>
+    <t>FID113</t>
+  </si>
+  <si>
+    <t>FID110$%#@</t>
+  </si>
+  <si>
+    <t>FID%^&amp;*^108</t>
+  </si>
+  <si>
+    <t>FID@#$%107</t>
+  </si>
+  <si>
+    <t>FID1@$^%03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,25 +103,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,17 +134,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,145 +455,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080D43D2-CAD2-42F8-843F-3BC53A94FB33}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="11" max="13" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>545</v>
-      </c>
-      <c r="I2">
-        <v>544</v>
-      </c>
-      <c r="J2">
-        <v>654</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>87</v>
-      </c>
-      <c r="I3">
-        <v>68</v>
-      </c>
-      <c r="J3">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{0B3FDEBB-1029-4B32-9A30-6E2616B6C3DF}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{E182C265-9715-42E7-915B-3FFD39D01CDC}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{DC04AA8D-4124-49A4-BF8F-433B248813F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/book.xlsx
+++ b/Doc/book.xlsx
@@ -1,100 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2C19E-B175-400D-8AAE-FEC8EA3B81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E07101-15DE-4890-B2A4-F78D05AA3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FCD31B-7798-427F-A334-20D83BC2FBC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
-  <si>
-    <t>Faculty ID</t>
-  </si>
-  <si>
-    <t>Faculty Name</t>
-  </si>
-  <si>
-    <t>Faculty Type</t>
-  </si>
-  <si>
-    <t>Zakie Khan</t>
-  </si>
-  <si>
-    <t>Visiting</t>
-  </si>
-  <si>
-    <t>Kartikey</t>
-  </si>
-  <si>
-    <t>FID123</t>
-  </si>
-  <si>
-    <t>FID104</t>
-  </si>
-  <si>
-    <t>FID105</t>
-  </si>
-  <si>
-    <t>FID106</t>
-  </si>
-  <si>
-    <t>FID109</t>
-  </si>
-  <si>
-    <t>FID111</t>
-  </si>
-  <si>
-    <t>FID112</t>
-  </si>
-  <si>
-    <t>FID113</t>
-  </si>
-  <si>
-    <t>FID110$%#@</t>
-  </si>
-  <si>
-    <t>FID%^&amp;*^108</t>
-  </si>
-  <si>
-    <t>FID@#$%107</t>
-  </si>
-  <si>
-    <t>FID1@$^%03</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Book No</t>
+  </si>
+  <si>
+    <t>Author 1</t>
+  </si>
+  <si>
+    <t>Author 2</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>CL Number</t>
+  </si>
+  <si>
+    <t>Total Pages</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Bill_No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vhg</t>
+  </si>
+  <si>
+    <t>Author 3</t>
+  </si>
+  <si>
+    <t>Book Copies</t>
+  </si>
+  <si>
+    <t>nbhijb</t>
+  </si>
+  <si>
+    <t>hjbhj</t>
+  </si>
+  <si>
+    <t>hjbh</t>
+  </si>
+  <si>
+    <t>learning C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denesh Pathak </t>
+  </si>
+  <si>
+    <t>k ramanujan</t>
+  </si>
+  <si>
+    <t>ph pub.</t>
+  </si>
+  <si>
+    <t>main library</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>zakie m</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>jk publishers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,26 +124,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,16 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,170 +476,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080D43D2-CAD2-42F8-843F-3BC53A94FB33}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="11" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1150</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>545</v>
+      </c>
+      <c r="I2">
+        <v>544</v>
+      </c>
+      <c r="J2">
+        <v>654</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>87</v>
+      </c>
+      <c r="I3">
+        <v>68</v>
+      </c>
+      <c r="J3">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{0B3FDEBB-1029-4B32-9A30-6E2616B6C3DF}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{E182C265-9715-42E7-915B-3FFD39D01CDC}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{DC04AA8D-4124-49A4-BF8F-433B248813F6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>